--- a/medicine/Psychotrope/Rouget_de_Lisle_(bière)/Rouget_de_Lisle_(bière).xlsx
+++ b/medicine/Psychotrope/Rouget_de_Lisle_(bière)/Rouget_de_Lisle_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rouget_de_Lisle_(bi%C3%A8re)</t>
+          <t>Rouget_de_Lisle_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière Rouget de Lisle est une bière artisanale française de la brasserie La Rouget de Lisle à Bletterans dans le Jura, baptisée du nom de Claude Joseph Rouget de Lisle, habitant du village et compositeur de La Marseillaise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rouget_de_Lisle_(bi%C3%A8re)</t>
+          <t>Rouget_de_Lisle_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1994, Bruno Mangin fait renaitre les brasseries artisanales en Franche-Comté qui comptait 83 brasseries au début du XXe siècle. Il installe sa brasserie sur un ancien domaine de Claude Joseph Rouget de Lisle (compositeur de La Marseillaise) à Bletterans.
 La Rouget de Lisle est une bière de fermentation basse avec une forte identité régionale, produite à base d'orge maltée et de blé malté, de plantes et produits aromatiques de la région.
 La fermentation est réalisée en cuve close aux environs de 14° durant 8 à 12 jours, puis la température des cuves est abaissée à 0° pendant un minimum de 21 jours.
-La brasserie Rouget de Lisle est récompensée lors du France Bière Challenge 2019[1].
+La brasserie Rouget de Lisle est récompensée lors du France Bière Challenge 2019.
 </t>
         </is>
       </c>
